--- a/import/raw_data/id_action_type.xlsx
+++ b/import/raw_data/id_action_type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fraunhofer.sharepoint.com/sites/MICAT/Freigegebene Dokumente/WP4 - Tool development and validation/MICATool/Database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bef\GitHub\micat\import\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_B5936CA212F7BCC66B5D942581A1269193A4BCB3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{980D6415-BCC9-4713-879D-5D5C0DDA5F2A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FB3D11-08AE-4625-9CC7-3CF06D0A3022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4425" windowHeight="3495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="30912" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -129,6 +129,63 @@
   </si>
   <si>
     <t>Fuel switch in vehicles (within the same mode of transport)</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Rooftop</t>
+  </si>
+  <si>
+    <t>PV mounted on building rooftops (or other small-scale)</t>
+  </si>
+  <si>
+    <t>Utility-scale</t>
+  </si>
+  <si>
+    <t>Large-scale PV, typically on open spaces</t>
+  </si>
+  <si>
+    <t>Onshore</t>
+  </si>
+  <si>
+    <t>Onshore wind turbines</t>
+  </si>
+  <si>
+    <t>Offshore</t>
+  </si>
+  <si>
+    <t>Offshore wind turbines</t>
+  </si>
+  <si>
+    <t>Lakes &amp; dams</t>
+  </si>
+  <si>
+    <t>Hydropower from large reservoirs</t>
+  </si>
+  <si>
+    <t>Run-of-river</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydropower without water retainment </t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>For electricity production</t>
+  </si>
+  <si>
+    <t>District heat</t>
+  </si>
+  <si>
+    <t>For district heat production</t>
+  </si>
+  <si>
+    <t>Cogeneration</t>
+  </si>
+  <si>
+    <t>For both electricity and district heat production</t>
   </si>
 </sst>
 </file>
@@ -138,7 +195,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,7 +258,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -217,9 +274,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -257,7 +314,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -363,7 +420,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -505,7 +562,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -513,22 +570,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
-    <col min="3" max="3" width="79.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" customWidth="1"/>
+    <col min="3" max="3" width="79.5546875" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,8 +595,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -549,8 +609,11 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -560,8 +623,11 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -571,8 +637,11 @@
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -582,8 +651,11 @@
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -593,8 +665,11 @@
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -604,8 +679,11 @@
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -615,8 +693,11 @@
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -626,8 +707,11 @@
       <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -637,8 +721,11 @@
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -648,8 +735,11 @@
       <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -659,8 +749,11 @@
       <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -670,8 +763,11 @@
       <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -681,8 +777,11 @@
       <c r="C14" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -692,8 +791,11 @@
       <c r="C15" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -703,8 +805,11 @@
       <c r="C16" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -714,8 +819,11 @@
       <c r="C17" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -724,6 +832,135 @@
       </c>
       <c r="C18" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -733,6 +970,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010081027A5C4AB68A40A5017F28CDCC410C" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6a99bad85733394ec9884d367e30f22e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ca47701c-f272-4f81-9665-1c7dbebc0776" xmlns:ns3="89bcd336-abeb-4a08-b6b9-8f1906e00f8a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c78837beb47b266e55ad3edbd611a71" ns2:_="" ns3:_="">
     <xsd:import namespace="ca47701c-f272-4f81-9665-1c7dbebc0776"/>
@@ -979,15 +1225,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1008,13 +1245,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72017004-8ECF-4A48-ABB8-F1BB1D4A38E0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{192607CB-0221-40ED-9805-CD77FD2CBBA5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{192607CB-0221-40ED-9805-CD77FD2CBBA5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72017004-8ECF-4A48-ABB8-F1BB1D4A38E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ca47701c-f272-4f81-9665-1c7dbebc0776"/>
+    <ds:schemaRef ds:uri="89bcd336-abeb-4a08-b6b9-8f1906e00f8a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD0812C0-F009-496B-8598-8396C02F1EC0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD0812C0-F009-496B-8598-8396C02F1EC0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="89bcd336-abeb-4a08-b6b9-8f1906e00f8a"/>
+    <ds:schemaRef ds:uri="ca47701c-f272-4f81-9665-1c7dbebc0776"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/import/raw_data/id_action_type.xlsx
+++ b/import/raw_data/id_action_type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bef\GitHub\micat\import\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FB3D11-08AE-4625-9CC7-3CF06D0A3022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AAA3EC-6239-4784-A792-B9340D1C6B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="30912" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40860" yWindow="0" windowWidth="20676" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -86,12 +86,6 @@
     <t>Energy-efficient electric cross-cutting technologies</t>
   </si>
   <si>
-    <t>Process change</t>
-  </si>
-  <si>
-    <t>Process change (fundamental changes to processes)</t>
-  </si>
-  <si>
     <t>Fuel switch</t>
   </si>
   <si>
@@ -116,16 +110,7 @@
     <t>Consumption reduction of vehicles (low-resistance tyres, side-boards on trucks, fuel additives, etc.)</t>
   </si>
   <si>
-    <t>Modal shift</t>
-  </si>
-  <si>
-    <t>Modal shift (Freight/passenger)</t>
-  </si>
-  <si>
     <t>Behavioural or driving changes (either autonomous or through regulations such as speed limits)</t>
-  </si>
-  <si>
-    <t>Emission thresholds</t>
   </si>
   <si>
     <t>Fuel switch in vehicles (within the same mode of transport)</t>
@@ -570,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,7 +581,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -713,7 +698,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>17</v>
@@ -727,7 +712,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>19</v>
@@ -741,9 +726,9 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -755,9 +740,9 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -769,13 +754,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -783,13 +768,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -797,55 +782,55 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
         <v>29</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>30</v>
+      <c r="C17" t="s">
+        <v>31</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -853,13 +838,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -867,13 +852,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -881,13 +866,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -895,13 +880,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -909,57 +894,15 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>36</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>37</v>
-      </c>
-      <c r="B26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>38</v>
-      </c>
-      <c r="B27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27">
         <v>1</v>
       </c>
     </row>
@@ -970,12 +913,22 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="89bcd336-abeb-4a08-b6b9-8f1906e00f8a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca47701c-f272-4f81-9665-1c7dbebc0776">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="89bcd336-abeb-4a08-b6b9-8f1906e00f8a">
+      <UserInfo>
+        <DisplayName>Krauß, Florian</DisplayName>
+        <AccountId>504</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <Type xmlns="ca47701c-f272-4f81-9665-1c7dbebc0776">id_table</Type>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1226,28 +1179,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="89bcd336-abeb-4a08-b6b9-8f1906e00f8a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca47701c-f272-4f81-9665-1c7dbebc0776">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="89bcd336-abeb-4a08-b6b9-8f1906e00f8a">
-      <UserInfo>
-        <DisplayName>Krauß, Florian</DisplayName>
-        <AccountId>504</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <Type xmlns="ca47701c-f272-4f81-9665-1c7dbebc0776">id_table</Type>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{192607CB-0221-40ED-9805-CD77FD2CBBA5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD0812C0-F009-496B-8598-8396C02F1EC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="89bcd336-abeb-4a08-b6b9-8f1906e00f8a"/>
+    <ds:schemaRef ds:uri="ca47701c-f272-4f81-9665-1c7dbebc0776"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1272,12 +1218,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD0812C0-F009-496B-8598-8396C02F1EC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{192607CB-0221-40ED-9805-CD77FD2CBBA5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="89bcd336-abeb-4a08-b6b9-8f1906e00f8a"/>
-    <ds:schemaRef ds:uri="ca47701c-f272-4f81-9665-1c7dbebc0776"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/import/raw_data/id_action_type.xlsx
+++ b/import/raw_data/id_action_type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bef\GitHub\micat\import\raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenz/Projekte/micat/import/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AAA3EC-6239-4784-A792-B9340D1C6B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439B68BB-2498-5644-B89A-73792AEA5438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40860" yWindow="0" windowWidth="20676" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>For both electricity and district heat production</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
@@ -243,7 +246,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -259,9 +262,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -299,7 +302,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -405,7 +408,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -555,22 +558,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.109375" customWidth="1"/>
-    <col min="3" max="3" width="79.5546875" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" customWidth="1"/>
+    <col min="3" max="3" width="79.5" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,7 +587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -598,7 +601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -612,7 +615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -626,7 +629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -640,7 +643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -654,7 +657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -668,7 +671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -682,7 +685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -696,7 +699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -710,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -724,7 +727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>12</v>
       </c>
@@ -738,7 +741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>13</v>
       </c>
@@ -752,157 +755,168 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>15</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>17</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>29</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
         <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
         <v>34</v>
       </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>38</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>44</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>45</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>1</v>
       </c>
     </row>
